--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value879.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value879.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.237718951049353</v>
+        <v>2.734859704971313</v>
       </c>
       <c r="B1">
-        <v>2.514738840740852</v>
+        <v>2.665366649627686</v>
       </c>
       <c r="C1">
-        <v>3.458327721147381</v>
+        <v>2.190991163253784</v>
       </c>
       <c r="D1">
-        <v>3.226412885012685</v>
+        <v>2.07158899307251</v>
       </c>
       <c r="E1">
-        <v>1.113678783048908</v>
+        <v>1.798366189002991</v>
       </c>
     </row>
   </sheetData>
